--- a/MinerStats.xlsx
+++ b/MinerStats.xlsx
@@ -379,7 +379,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="PNL"/>
-  <dimension ref="A1:C683"/>
+  <dimension ref="A1:C695"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5669,6 +5669,132 @@
       </c>
       <c r="C683">
         <v>0</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="str">
+        <v>2022:11:11</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685">
+        <v/>
+      </c>
+      <c r="B685" t="str">
+        <v>MATIC:</v>
+      </c>
+      <c r="C685">
+        <v>0.32425099999999674</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686">
+        <v/>
+      </c>
+      <c r="B686" t="str">
+        <v>BNB:</v>
+      </c>
+      <c r="C686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687">
+        <v/>
+      </c>
+      <c r="B687" t="str">
+        <v>AVAX:</v>
+      </c>
+      <c r="C687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688">
+        <v/>
+      </c>
+      <c r="B688" t="str">
+        <v>USDC:</v>
+      </c>
+      <c r="C688">
+        <v>-14.424849</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689">
+        <v/>
+      </c>
+      <c r="B689" t="str">
+        <v>MATIC:</v>
+      </c>
+      <c r="C689">
+        <v>14.308581</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690">
+        <v/>
+      </c>
+      <c r="B690" t="str">
+        <v>BNB:</v>
+      </c>
+      <c r="C690">
+        <v>-2.3885129999999997</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691">
+        <v/>
+      </c>
+      <c r="B691" t="str">
+        <v>AVAX:</v>
+      </c>
+      <c r="C691">
+        <v>-2.6039999999999996</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692">
+        <v/>
+      </c>
+      <c r="B692" t="str">
+        <v>FTM:</v>
+      </c>
+      <c r="C692">
+        <v>-445.399562</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693">
+        <v/>
+      </c>
+      <c r="B693" t="str">
+        <v>SPELL:</v>
+      </c>
+      <c r="C693">
+        <v>447.07780499999996</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694">
+        <v/>
+      </c>
+      <c r="B694" t="str">
+        <v>TOMB:</v>
+      </c>
+      <c r="C694">
+        <v>-59.874448</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695">
+        <v/>
+      </c>
+      <c r="B695" t="str">
+        <v>ELK:</v>
+      </c>
+      <c r="C695" t="str">
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>
@@ -5679,7 +5805,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Rewards"/>
-  <dimension ref="A1:C842"/>
+  <dimension ref="A1:C857"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11602,17 +11728,11 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829">
-        <v/>
-      </c>
       <c r="B829" t="str">
         <v>BakeHouse</v>
       </c>
     </row>
     <row r="830">
-      <c r="A830">
-        <v/>
-      </c>
       <c r="B830" t="str">
         <v>AVAX:</v>
       </c>
@@ -11621,9 +11741,6 @@
       </c>
     </row>
     <row r="831">
-      <c r="A831">
-        <v/>
-      </c>
       <c r="B831" t="str">
         <v>BNB:</v>
       </c>
@@ -11632,17 +11749,11 @@
       </c>
     </row>
     <row r="832">
-      <c r="A832">
-        <v/>
-      </c>
       <c r="B832" t="str">
         <v>MultiMiner</v>
       </c>
     </row>
     <row r="833">
-      <c r="A833">
-        <v/>
-      </c>
       <c r="B833" t="str">
         <v>MATIC:</v>
       </c>
@@ -11651,20 +11762,14 @@
       </c>
     </row>
     <row r="834">
-      <c r="A834">
-        <v/>
-      </c>
       <c r="B834" t="str">
         <v>USDC:</v>
       </c>
       <c r="C834">
-        <v>0.130000</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="835">
-      <c r="A835">
-        <v/>
-      </c>
       <c r="B835" t="str">
         <v>MATIC:</v>
       </c>
@@ -11673,9 +11778,6 @@
       </c>
     </row>
     <row r="836">
-      <c r="A836">
-        <v/>
-      </c>
       <c r="B836" t="str">
         <v>AVAX:</v>
       </c>
@@ -11684,9 +11786,6 @@
       </c>
     </row>
     <row r="837">
-      <c r="A837">
-        <v/>
-      </c>
       <c r="B837" t="str">
         <v>FTM:</v>
       </c>
@@ -11695,9 +11794,6 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838">
-        <v/>
-      </c>
       <c r="B838" t="str">
         <v>SPELL:</v>
       </c>
@@ -11706,28 +11802,19 @@
       </c>
     </row>
     <row r="839">
-      <c r="A839">
-        <v/>
-      </c>
       <c r="B839" t="str">
         <v>TOMB:</v>
       </c>
       <c r="C839">
-        <v>0.000020</v>
+        <v>0.00002</v>
       </c>
     </row>
     <row r="840">
-      <c r="A840">
-        <v/>
-      </c>
       <c r="B840" t="str">
         <v>FortuneHunters</v>
       </c>
     </row>
     <row r="841">
-      <c r="A841">
-        <v/>
-      </c>
       <c r="B841" t="str">
         <v>ELK:</v>
       </c>
@@ -11736,14 +11823,119 @@
       </c>
     </row>
     <row r="842">
-      <c r="A842">
-        <v/>
-      </c>
       <c r="B842" t="str">
         <v>CAKE:</v>
       </c>
       <c r="C842">
         <v>0.066812</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="str">
+        <v>2022:11:11</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="B844" t="str">
+        <v>BakeHouse</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="B845" t="str">
+        <v>AVAX:</v>
+      </c>
+      <c r="C845">
+        <v>0.056725</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="B846" t="str">
+        <v>BNB:</v>
+      </c>
+      <c r="C846">
+        <v>0.000645</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="B847" t="str">
+        <v>MultiMiner</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="B848" t="str">
+        <v>MATIC:</v>
+      </c>
+      <c r="C848">
+        <v>0.351497</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="B849" t="str">
+        <v>USDC:</v>
+      </c>
+      <c r="C849">
+        <v>0.57492</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="B850" t="str">
+        <v>MATIC:</v>
+      </c>
+      <c r="C850">
+        <v>0.037241</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="B851" t="str">
+        <v>AVAX:</v>
+      </c>
+      <c r="C851">
+        <v>0.001062</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="B852" t="str">
+        <v>FTM:</v>
+      </c>
+      <c r="C852">
+        <v>0.016071</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="B853" t="str">
+        <v>SPELL:</v>
+      </c>
+      <c r="C853">
+        <v>3.508607</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="B854" t="str">
+        <v>TOMB:</v>
+      </c>
+      <c r="C854">
+        <v>0.015065</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="B855" t="str">
+        <v>FortuneHunters</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="B856" t="str">
+        <v>ELK:</v>
+      </c>
+      <c r="C856">
+        <v>32.022002</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="B857" t="str">
+        <v>CAKE:</v>
+      </c>
+      <c r="C857">
+        <v>0.112059</v>
       </c>
     </row>
   </sheetData>
@@ -11754,7 +11946,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Balance"/>
-  <dimension ref="A1:C799"/>
+  <dimension ref="A1:C813"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17626,6 +17818,109 @@
         <v>66.689672</v>
       </c>
     </row>
+    <row r="800">
+      <c r="A800" t="str">
+        <v>2022:11:11</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="B801" t="str">
+        <v>Wallet1</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="B802" t="str">
+        <v>MATIC:</v>
+      </c>
+      <c r="C802">
+        <v>32.881432</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="B803" t="str">
+        <v>BNB:</v>
+      </c>
+      <c r="C803">
+        <v>0.068845</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="B804" t="str">
+        <v>AVAX:</v>
+      </c>
+      <c r="C804">
+        <v>0.289307</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="B805" t="str">
+        <v>USDC:</v>
+      </c>
+      <c r="C805">
+        <v>0.054642</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="B806" t="str">
+        <v>Wallet2</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="B807" t="str">
+        <v>MATIC:</v>
+      </c>
+      <c r="C807">
+        <v>14.51117</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="B808" t="str">
+        <v>BNB:</v>
+      </c>
+      <c r="C808">
+        <v>0.202666</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="B809" t="str">
+        <v>AVAX:</v>
+      </c>
+      <c r="C809">
+        <v>2.64373</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="B810" t="str">
+        <v>FTM:</v>
+      </c>
+      <c r="C810">
+        <v>5.142455</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="B811" t="str">
+        <v>SPELL:</v>
+      </c>
+      <c r="C811">
+        <v>453.878699</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="B812" t="str">
+        <v>TOMB:</v>
+      </c>
+      <c r="C812">
+        <v>6.815224</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="B813" t="str">
+        <v>ELK:</v>
+      </c>
+      <c r="C813">
+        <v>66.689672</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
 </worksheet>

--- a/MinerStats.xlsx
+++ b/MinerStats.xlsx
@@ -6102,9 +6102,6 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739">
-        <v/>
-      </c>
       <c r="B739" t="str">
         <v>MATIC:</v>
       </c>
@@ -6113,9 +6110,6 @@
       </c>
     </row>
     <row r="740">
-      <c r="A740">
-        <v/>
-      </c>
       <c r="B740" t="str">
         <v>BNB:</v>
       </c>
@@ -6124,9 +6118,6 @@
       </c>
     </row>
     <row r="741">
-      <c r="A741">
-        <v/>
-      </c>
       <c r="B741" t="str">
         <v>AVAX:</v>
       </c>
@@ -6135,9 +6126,6 @@
       </c>
     </row>
     <row r="742">
-      <c r="A742">
-        <v/>
-      </c>
       <c r="B742" t="str">
         <v>USDC:</v>
       </c>
@@ -6146,9 +6134,6 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743">
-        <v/>
-      </c>
       <c r="B743" t="str">
         <v>MATIC:</v>
       </c>
@@ -6157,9 +6142,6 @@
       </c>
     </row>
     <row r="744">
-      <c r="A744">
-        <v/>
-      </c>
       <c r="B744" t="str">
         <v>BNB:</v>
       </c>
@@ -6168,9 +6150,6 @@
       </c>
     </row>
     <row r="745">
-      <c r="A745">
-        <v/>
-      </c>
       <c r="B745" t="str">
         <v>AVAX:</v>
       </c>
@@ -6179,9 +6158,6 @@
       </c>
     </row>
     <row r="746">
-      <c r="A746">
-        <v/>
-      </c>
       <c r="B746" t="str">
         <v>FTM:</v>
       </c>
@@ -6190,9 +6166,6 @@
       </c>
     </row>
     <row r="747">
-      <c r="A747">
-        <v/>
-      </c>
       <c r="B747" t="str">
         <v>SPELL:</v>
       </c>
@@ -6201,9 +6174,6 @@
       </c>
     </row>
     <row r="748">
-      <c r="A748">
-        <v/>
-      </c>
       <c r="B748" t="str">
         <v>TOMB:</v>
       </c>
@@ -6212,9 +6182,6 @@
       </c>
     </row>
     <row r="749">
-      <c r="A749">
-        <v/>
-      </c>
       <c r="B749" t="str">
         <v>ELK:</v>
       </c>
@@ -6223,9 +6190,6 @@
       </c>
     </row>
     <row r="750">
-      <c r="A750">
-        <v/>
-      </c>
       <c r="B750" t="str">
         <v>Cake:</v>
       </c>
@@ -6241,7 +6205,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Rewards"/>
-  <dimension ref="A1:C902"/>
+  <dimension ref="A1:C932"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12696,6 +12660,264 @@
       </c>
       <c r="C902">
         <v>0.117597</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="str">
+        <v>2022:11:18</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="B904" t="str">
+        <v>BakeHouse</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="B905" t="str">
+        <v>AVAX:</v>
+      </c>
+      <c r="C905">
+        <v>0.122097</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="B906" t="str">
+        <v>BNB:</v>
+      </c>
+      <c r="C906">
+        <v>0.002111</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="B907" t="str">
+        <v>MultiMiner</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="B908" t="str">
+        <v>MATIC:</v>
+      </c>
+      <c r="C908">
+        <v>0.805231</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="B909" t="str">
+        <v>USDC:</v>
+      </c>
+      <c r="C909">
+        <v>0.142812</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="B910" t="str">
+        <v>MATIC:</v>
+      </c>
+      <c r="C910">
+        <v>0.093179</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="B911" t="str">
+        <v>AVAX:</v>
+      </c>
+      <c r="C911">
+        <v>0.002628</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="B912" t="str">
+        <v>FTM:</v>
+      </c>
+      <c r="C912">
+        <v>0.038782</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="B913" t="str">
+        <v>SPELL:</v>
+      </c>
+      <c r="C913">
+        <v>10.076009</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="B914" t="str">
+        <v>TOMB:</v>
+      </c>
+      <c r="C914">
+        <v>0.042585</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="B915" t="str">
+        <v>FortuneHunters</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="B916" t="str">
+        <v>ELK:</v>
+      </c>
+      <c r="C916">
+        <v>103.319598</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="B917" t="str">
+        <v>CAKE:</v>
+      </c>
+      <c r="C917">
+        <v>0.11803</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="str">
+        <v>2022:11:18</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919">
+        <v/>
+      </c>
+      <c r="B919" t="str">
+        <v>BakeHouse</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920">
+        <v/>
+      </c>
+      <c r="B920" t="str">
+        <v>AVAX:</v>
+      </c>
+      <c r="C920">
+        <v>0.000588</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921">
+        <v/>
+      </c>
+      <c r="B921" t="str">
+        <v>BNB:</v>
+      </c>
+      <c r="C921">
+        <v>0.000010</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922">
+        <v/>
+      </c>
+      <c r="B922" t="str">
+        <v>MultiMiner</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923">
+        <v/>
+      </c>
+      <c r="B923" t="str">
+        <v>MATIC:</v>
+      </c>
+      <c r="C923">
+        <v>0.004440</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924">
+        <v/>
+      </c>
+      <c r="B924" t="str">
+        <v>USDC:</v>
+      </c>
+      <c r="C924">
+        <v>0.782000</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925">
+        <v/>
+      </c>
+      <c r="B925" t="str">
+        <v>MATIC:</v>
+      </c>
+      <c r="C925">
+        <v>0.000508</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926">
+        <v/>
+      </c>
+      <c r="B926" t="str">
+        <v>AVAX:</v>
+      </c>
+      <c r="C926">
+        <v>0.000014</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927">
+        <v/>
+      </c>
+      <c r="B927" t="str">
+        <v>FTM:</v>
+      </c>
+      <c r="C927">
+        <v>0.000201</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928">
+        <v/>
+      </c>
+      <c r="B928" t="str">
+        <v>SPELL:</v>
+      </c>
+      <c r="C928">
+        <v>0.049986</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929">
+        <v/>
+      </c>
+      <c r="B929" t="str">
+        <v>TOMB:</v>
+      </c>
+      <c r="C929">
+        <v>0.000204</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930">
+        <v/>
+      </c>
+      <c r="B930" t="str">
+        <v>FortuneHunters</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931">
+        <v/>
+      </c>
+      <c r="B931" t="str">
+        <v>ELK:</v>
+      </c>
+      <c r="C931">
+        <v>103.315848</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932">
+        <v/>
+      </c>
+      <c r="B932" t="str">
+        <v>CAKE:</v>
+      </c>
+      <c r="C932">
+        <v>0.118748</v>
       </c>
     </row>
   </sheetData>
